--- a/medicine/Enfance/Black_Beauty/Black_Beauty.xlsx
+++ b/medicine/Enfance/Black_Beauty/Black_Beauty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Prince noir ou Black Beauty (titre intégral : Black Beauty : The Autobiography of a Horse) est l'unique roman d'Anna Sewell, qui l'écrivit de 1871 à 1877, alors qu'elle était souvent malade[1].
+Prince noir ou Black Beauty (titre intégral : Black Beauty : The Autobiography of a Horse) est l'unique roman d'Anna Sewell, qui l'écrivit de 1871 à 1877, alors qu'elle était souvent malade.
 Le roman a été publié en Angleterre le 24 novembre 1877.
-En Suisse, il paraît en 1912 sous le titre : Prince Noir : souvenirs d'un cheval[2].
-En France, il est publié pour la première fois en 1965[3] sous le titre : Les Aventures de Prince noir. La dernière édition en France (2012) porte le titre : Prince noir[4].
+En Suisse, il paraît en 1912 sous le titre : Prince Noir : souvenirs d'un cheval.
+En France, il est publié pour la première fois en 1965 sous le titre : Les Aventures de Prince noir. La dernière édition en France (2012) porte le titre : Prince noir.
 L'histoire est l'autobiographie fictive d'un cheval nommé Black Beauty, confronté à la cruauté ou bien à la sympathie des hommes dans l'Angleterre du XIXe siècle. Chaque chapitre du roman raconte un incident de la vie de Black Beauty et contient une leçon ou une morale en rapport avec le traitement des chevaux à l'époque. Le roman d'Anna Sewell a d'ailleurs contribué à l'amélioration du sort des chevaux au Royaume-Uni.
 </t>
         </is>
@@ -516,7 +528,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'histoire, racontée à la première personne, est l'autobiographie d'un cheval nommé Black Beauty, qui commence sa vie de poulain dans une ferme anglaise. Le roman raconte les mésaventures de ce cheval, vendu par ses premiers propriétaires, jusqu'à devenir cheval de fiacre dans les rues de Londres. Tout au long de l'histoire, Black Beauty est confronté à la cruauté ou la sympathie des hommes, et continue à faire le travail qu'on lui demande avec courage.
 Chaque chapitre du roman raconte un incident de la vie de Black Beauty et contient une leçon ou une morale en rapport avec le traitement des chevaux à l'époque.
@@ -550,10 +564,12 @@
           <t>Histoire et publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Étant dans l'impossibilité de marcher à cause d'un accident lorsqu'elle était jeune, Anna Sewell commence à s'intéresser aux chevaux très tôt dans sa vie en passant de longues heures à conduire à se déplacer en calèche, de la gare à son travail. Elle est introduite dans le monde de l'écriture par sa mère, Mary Wright Sewell (1798-1884), Quaker de religion et auteur populaire de romans pour la jeunesse.
-À l'origine, Black Beauty n'est pas conçu pour être un roman pour la jeunesse mais pour ceux qui travaillent quotidiennement avec les chevaux. Il est influencé par un essai sur les animaux, Essay on Animals, d'Horace Bushnell (1802-1876) qu'Anna Sewell a lu[5].
+À l'origine, Black Beauty n'est pas conçu pour être un roman pour la jeunesse mais pour ceux qui travaillent quotidiennement avec les chevaux. Il est influencé par un essai sur les animaux, Essay on Animals, d'Horace Bushnell (1802-1876) qu'Anna Sewell a lu.
 </t>
         </is>
       </c>
@@ -582,12 +598,49 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En racontant l'histoire d'un cheval sous la forme d'une autobiographie, Anna Sewell donne naissance à un nouveau genre littéraire[6]. Ce roman se montre très en avance sur son temps en matière de protection animale, en prenant parti contre l'enrênement en attelage, les œillères et la caudectomie. D'après Amélie Tsaag Valren, il « préfigure d’une certaine manière la disparition du cheval en ville. Anna Sewell montre que cet animal de chair et de sang, qui ressent la douleur et la tristesse, n’a pas sa place dans l’environnement urbain et la société industrielle de Londres »[7].
-Lorsque le roman sort, il provoque la controverse en Angleterre puisque l'auteur y dénonce les mauvais traitements infligés aux chevaux. Ce n'est que plus tard que le livre devient un best-seller, mais Anna Sewell décède cinq mois après sa publication. Elle affirma que la visée de ce roman était d'améliorer le sort des chevaux d'Angleterre[1].
-Personnages
-Chevaux
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En racontant l'histoire d'un cheval sous la forme d'une autobiographie, Anna Sewell donne naissance à un nouveau genre littéraire. Ce roman se montre très en avance sur son temps en matière de protection animale, en prenant parti contre l'enrênement en attelage, les œillères et la caudectomie. D'après Amélie Tsaag Valren, il « préfigure d’une certaine manière la disparition du cheval en ville. Anna Sewell montre que cet animal de chair et de sang, qui ressent la douleur et la tristesse, n’a pas sa place dans l’environnement urbain et la société industrielle de Londres ».
+Lorsque le roman sort, il provoque la controverse en Angleterre puisque l'auteur y dénonce les mauvais traitements infligés aux chevaux. Ce n'est que plus tard que le livre devient un best-seller, mais Anna Sewell décède cinq mois après sa publication. Elle affirma que la visée de ce roman était d'améliorer le sort des chevaux d'Angleterre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Black_Beauty</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Black_Beauty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chevaux
 Black Beauty/Prince Noir/Black Jack — Narrateur de l'histoire, un cheval noir. Il commence sa vie comme cheval d'attelage chez de bons propriétaires puis, après un accident où il a les genoux brisés (abîmés après une chute), n'est plus considéré comme présentable. Il est alors vendu et revendu, chaque fois pour un travail plus pénible. Il passe entre les mains de nombreux propriétaires, certains cruels, certains compatissants, et fait toujours de son mieux pour les servir en toutes circonstances.
 Duchesse — La mère de Black Beauty, qui l'encourage dès son plus jeune âge à se comporter gentiment avec les humains.
 Rob Roy — Un beau cheval noir utilisé pour la chasse à courre, dans la ferme natale de Black Beauty. On apprend plus tard qu'il est son demi-frère aîné.
@@ -617,33 +670,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Black_Beauty</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Black_Beauty</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Adaptations et influence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le roman est devenu très vite un succès populaire auprès de la jeunesse et un classique du genre pour des générations d'enfants scolarisés, surtout en Grande-Bretagne. Au-delà du message en faveur de la protection des animaux, Black Beauty incite au respect, à la gentillesse et au courage. Sa description des traitements infligés aux chevaux de travail contribue à l'abandon de la fausse rêne (ou enrênement), utilisé à l'époque victorienne comme instrument de mode pour relever la tête des chevaux d'attelage, endommageant ainsi parfois gravement leur encolure[6] 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le roman est devenu très vite un succès populaire auprès de la jeunesse et un classique du genre pour des générations d'enfants scolarisés, surtout en Grande-Bretagne. Au-delà du message en faveur de la protection des animaux, Black Beauty incite au respect, à la gentillesse et au courage. Sa description des traitements infligés aux chevaux de travail contribue à l'abandon de la fausse rêne (ou enrênement), utilisé à l'époque victorienne comme instrument de mode pour relever la tête des chevaux d'attelage, endommageant ainsi parfois gravement leur encolure 
 Le roman a été adapté plusieurs fois à la télévision et au cinéma :
 « Black Beauty (1921/II) » (présentation de l'œuvre), sur l'Internet Movie Database
 « Black Beauty (1946) » (présentation de l'œuvre), sur l'Internet Movie Database
@@ -652,9 +707,43 @@
 The New Adventures of Black Beauty ( serie télévisée,1990-1991;saison 1, 26 épisodes)
 The New Adventures of Black Beauty (série télévisée, 1992-1993, saison 2
 Prince noir (1994)
-Black Beauty (2020)
-Influence sur d'autres travaux
-Beautiful Joe est un roman de 1893 directement influencé par Black Beauty et décrivant le même type de mésaventures mais du point de vue d'un chien.
+Black Beauty (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Black_Beauty</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Black_Beauty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Adaptations et influence</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Influence sur d'autres travaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Beautiful Joe est un roman de 1893 directement influencé par Black Beauty et décrivant le même type de mésaventures mais du point de vue d'un chien.
 Phyllis Briggs écrivit une suite, Le Fils de Black Beauty, publiée en 1950.
 Spike Milligan a écrit une parodie du roman, intitulée Black Beauty According to Spike Milligan (1996).</t>
         </is>
